--- a/tweets_teste_p2.xlsx
+++ b/tweets_teste_p2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pedro/Desktop/INSPER_/2S/P2_Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29267F5E-0230-9F41-8507-95DD3D7F8234}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8452F26-B11C-9C4F-BE80-F1F60BBB700A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14000" xr2:uid="{9C749B19-2CAE-5E4F-9326-BB1CA4133D5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="199">
   <si>
     <t>Teste</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>@lsarmiliato opa, logo logo ele vira lu! https://t.co/ijvrhvjgmz</t>
+  </si>
+  <si>
+    <t>Avaliacao</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1036,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,6 +1048,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/tweets_teste_p2.xlsx
+++ b/tweets_teste_p2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pedro/Desktop/INSPER_/2S/P2_Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8452F26-B11C-9C4F-BE80-F1F60BBB700A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14608547-39B6-2C41-BB8C-579618093DC8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14000" xr2:uid="{9C749B19-2CAE-5E4F-9326-BB1CA4133D5D}"/>
   </bookViews>
@@ -1035,13 +1035,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDCE1D2-A2B0-F446-A6EF-C9A52E29B4FB}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="158" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="119" customWidth="1"/>
+    <col min="1" max="1" width="114.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1385,7 +1385,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
